--- a/results/A-07.xlsx
+++ b/results/A-07.xlsx
@@ -733,37 +733,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-6387.117262047821</v>
+        <v>-6412.028244295652</v>
       </c>
       <c r="C2">
-        <v>13422.26651678951</v>
+        <v>13470.48911950528</v>
       </c>
       <c r="D2">
-        <v>-6387.117256666488</v>
+        <v>-6412.02822783759</v>
       </c>
       <c r="E2">
-        <v>-648.0319980751431</v>
+        <v>-646.4326473722243</v>
       </c>
       <c r="F2">
-        <v>60.569066836888</v>
+        <v>60.36607072098747</v>
       </c>
       <c r="G2">
-        <v>45.01607524544028</v>
+        <v>45.0198444685156</v>
       </c>
       <c r="H2">
-        <v>61.04060557973173</v>
+        <v>60.82755781407724</v>
       </c>
       <c r="I2">
-        <v>44.6986167140559</v>
+        <v>44.70776185052205</v>
       </c>
       <c r="J2">
-        <v>60.56906683649913</v>
+        <v>60.36607071982411</v>
       </c>
       <c r="K2">
-        <v>45.01607524526537</v>
+        <v>45.01984446787066</v>
       </c>
       <c r="L2">
-        <v>54.12445323149689</v>
+        <v>54.16004034899379</v>
       </c>
       <c r="M2">
         <v>45</v>
@@ -772,22 +772,22 @@
         <v>65</v>
       </c>
       <c r="O2">
-        <v>45.82533354744356</v>
+        <v>45.75644411499246</v>
       </c>
       <c r="P2">
-        <v>54.12445322380927</v>
+        <v>54.16004032548227</v>
       </c>
       <c r="Q2">
         <v>45</v>
       </c>
       <c r="R2">
-        <v>5.866686918621042</v>
+        <v>5.968920435744465</v>
       </c>
       <c r="S2">
-        <v>-11.73337383237988</v>
+        <v>-11.93784085636986</v>
       </c>
       <c r="T2">
-        <v>5.866686913758842</v>
+        <v>5.968920420625395</v>
       </c>
       <c r="U2">
         <v>10</v>
@@ -799,13 +799,13 @@
         <v>10</v>
       </c>
       <c r="X2">
-        <v>-40.09173483871711</v>
+        <v>-41.03842988085375</v>
       </c>
       <c r="Y2">
-        <v>-64.2413431540369</v>
+        <v>-63.26044784214886</v>
       </c>
       <c r="Z2">
-        <v>-40.09173483871712</v>
+        <v>-41.03842988085372</v>
       </c>
       <c r="AB2">
         <v>10</v>
@@ -817,91 +817,91 @@
         <v>10</v>
       </c>
       <c r="AE2">
-        <v>-5.866686918621042</v>
+        <v>-5.968920435744465</v>
       </c>
       <c r="AF2">
-        <v>5.866686913758842</v>
+        <v>5.968920420625395</v>
       </c>
       <c r="AG2">
-        <v>5.866686918621042</v>
+        <v>5.968920435744465</v>
       </c>
       <c r="AH2">
-        <v>-11.73337383237988</v>
+        <v>-11.93784085636986</v>
       </c>
       <c r="AI2">
-        <v>5.866686913758842</v>
+        <v>5.968920420625395</v>
       </c>
       <c r="AJ2">
-        <v>5.866686918621042</v>
+        <v>5.968920435744465</v>
       </c>
       <c r="AK2">
-        <v>-5.866686913758842</v>
+        <v>-5.968920420625395</v>
       </c>
       <c r="AL2">
-        <v>12.07480415765989</v>
+        <v>11.11100898064756</v>
       </c>
       <c r="AM2">
-        <v>-12.07480415765989</v>
+        <v>-11.11100898064754</v>
       </c>
       <c r="AN2">
-        <v>-40.09173483871711</v>
+        <v>-41.03842988085375</v>
       </c>
       <c r="AO2">
-        <v>-64.2413431540369</v>
+        <v>-63.26044784214886</v>
       </c>
       <c r="AP2">
-        <v>-40.09173483871712</v>
+        <v>-41.03842988085372</v>
       </c>
       <c r="AQ2">
-        <v>-12.07480415765989</v>
+        <v>-11.11100898064756</v>
       </c>
       <c r="AR2">
-        <v>12.07480415765989</v>
+        <v>11.11100898064754</v>
       </c>
       <c r="AS2">
-        <v>60.569066836888</v>
+        <v>60.36607072098747</v>
       </c>
       <c r="AT2">
-        <v>60.569066836888</v>
+        <v>60.36607072098747</v>
       </c>
       <c r="AU2">
-        <v>61.04060557973179</v>
+        <v>60.8275578140773</v>
       </c>
       <c r="AV2">
-        <v>61.04060557973179</v>
+        <v>60.8275578140773</v>
       </c>
       <c r="AW2">
-        <v>61.04060557973173</v>
+        <v>60.82755781407724</v>
       </c>
       <c r="AX2">
-        <v>60.56906683649913</v>
+        <v>60.36607071982411</v>
       </c>
       <c r="AY2">
-        <v>60.56906683649913</v>
+        <v>60.36607071982411</v>
       </c>
       <c r="AZ2">
-        <v>45.01607524544028</v>
+        <v>45.0198444685156</v>
       </c>
       <c r="BA2">
-        <v>45.01607524544028</v>
+        <v>45.0198444685156</v>
       </c>
       <c r="BB2">
-        <v>44.6986167140559</v>
+        <v>44.70776185052205</v>
       </c>
       <c r="BC2">
-        <v>44.6986167142735</v>
+        <v>44.70776185123469</v>
       </c>
       <c r="BD2">
-        <v>44.69861671383848</v>
+        <v>44.70776184980912</v>
       </c>
       <c r="BE2">
-        <v>45.01607524526537</v>
+        <v>45.01984446787066</v>
       </c>
       <c r="BF2">
-        <v>45.01607524526537</v>
+        <v>45.01984446787066</v>
       </c>
       <c r="BG2">
-        <v>54.12445323149689</v>
+        <v>54.16004034899379</v>
       </c>
       <c r="BH2">
         <v>45</v>
@@ -910,10 +910,10 @@
         <v>65</v>
       </c>
       <c r="BJ2">
-        <v>45.82533354744356</v>
+        <v>45.75644411499246</v>
       </c>
       <c r="BK2">
-        <v>54.12445322380927</v>
+        <v>54.16004032548227</v>
       </c>
       <c r="BL2">
         <v>45</v>
